--- a/Data/EC/NIT-9009156792.xlsx
+++ b/Data/EC/NIT-9009156792.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF28B1A-7E4B-4265-8C69-369598B5CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D246B051-5A09-4BDB-82AC-656709C58EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2013B50-1FE1-4299-8C65-4737513FEA58}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{323AF8FF-C29F-4069-B35B-F6081C957C83}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,6 +71,36 @@
     <t>FERNANDO OROZCO ZAMORA</t>
   </si>
   <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
@@ -80,34 +110,10 @@
     <t>ANIANO ZABALA GOMEZ</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
+    <t>9009156792</t>
+  </si>
+  <si>
+    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -151,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479B377E-EBF1-F2F7-961E-2A3EC0D7746D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F97FD-3714-E27A-3A18-C3BF8D0A95C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,32 +878,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF6A184-BD79-4ADC-9590-79E85DC2B13C}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01E87C4-F9DD-44CE-9ADC-50BA8E024F94}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -906,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -917,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -928,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -939,10 +945,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -955,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -971,15 +977,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>348505</v>
+        <v>583225</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,27 +993,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1027,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1059,30 +1065,30 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1093,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1105,7 +1111,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,10 +1122,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1128,7 +1134,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1139,10 +1145,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1151,7 +1157,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1162,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>27578</v>
@@ -1174,7 +1180,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
@@ -1197,7 +1203,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1208,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1220,7 +1226,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1231,10 +1237,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1243,7 +1249,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1254,10 +1260,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1266,7 +1272,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1277,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1289,57 +1295,78 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="24">
-        <v>26041</v>
-      </c>
-      <c r="G27" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>800000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="24">
+        <v>234720</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33" s="32"/>
       <c r="H33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009156792.xlsx
+++ b/Data/EC/NIT-9009156792.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D246B051-5A09-4BDB-82AC-656709C58EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1421AC73-B300-4A08-9C82-EC8BBCB165B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{323AF8FF-C29F-4069-B35B-F6081C957C83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A1FCC178-2725-4F93-8465-5C08CABA17C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,49 +71,43 @@
     <t>FERNANDO OROZCO ZAMORA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>9089643</t>
+  </si>
+  <si>
+    <t>ANIANO ZABALA GOMEZ</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>9089643</t>
-  </si>
-  <si>
-    <t>ANIANO ZABALA GOMEZ</t>
-  </si>
-  <si>
-    <t>9009156792</t>
-  </si>
-  <si>
-    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +151,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,13 +506,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>189350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -527,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6F97FD-3714-E27A-3A18-C3BF8D0A95C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF9D7B7-50AF-CAF0-4EDD-A3A7B139258D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,7 +543,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="680600" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -878,32 +872,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01E87C4-F9DD-44CE-9ADC-50BA8E024F94}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5845CA-35C3-4471-83B1-AD91AE59E63D}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -912,7 +906,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +917,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +928,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,10 +939,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -961,8 +955,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,15 +971,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>583225</v>
+        <v>348505</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,27 +987,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,16 +1027,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1065,7 +1059,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1079,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1088,30 +1082,30 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1122,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1134,7 +1128,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1145,10 +1139,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1157,7 +1151,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>27578</v>
@@ -1180,7 +1174,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
@@ -1203,7 +1197,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1214,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1226,7 +1220,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1237,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1249,7 +1243,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1260,10 +1254,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1272,7 +1266,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1283,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1295,78 +1289,57 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="2:10">
+      <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="24">
-        <v>234720</v>
-      </c>
-      <c r="G28" s="24">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G27" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33" s="32"/>
       <c r="H33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
